--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp6-Bmpr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H2">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J2">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.9936586396671</v>
+        <v>32.017979</v>
       </c>
       <c r="N2">
-        <v>27.9936586396671</v>
+        <v>96.05393700000002</v>
       </c>
       <c r="O2">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="P2">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="Q2">
-        <v>393.6308385255384</v>
+        <v>686.5879705476541</v>
       </c>
       <c r="R2">
-        <v>393.6308385255384</v>
+        <v>6179.291734928887</v>
       </c>
       <c r="S2">
-        <v>0.1296258840450797</v>
+        <v>0.1310527955154176</v>
       </c>
       <c r="T2">
-        <v>0.1296258840450797</v>
+        <v>0.1310527955154176</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H3">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J3">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.7934536953541</v>
+        <v>27.90901333333333</v>
       </c>
       <c r="N3">
-        <v>27.7934536953541</v>
+        <v>83.72704</v>
       </c>
       <c r="O3">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323413</v>
       </c>
       <c r="P3">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323412</v>
       </c>
       <c r="Q3">
-        <v>390.8156709505786</v>
+        <v>598.47602575168</v>
       </c>
       <c r="R3">
-        <v>390.8156709505786</v>
+        <v>5386.28423176512</v>
       </c>
       <c r="S3">
-        <v>0.1286988261270413</v>
+        <v>0.1142343874174693</v>
       </c>
       <c r="T3">
-        <v>0.1286988261270413</v>
+        <v>0.1142343874174693</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H4">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I4">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J4">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.5157406275781</v>
+        <v>20.29987433333334</v>
       </c>
       <c r="N4">
-        <v>18.5157406275781</v>
+        <v>60.89962300000001</v>
       </c>
       <c r="O4">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="P4">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="Q4">
-        <v>260.3577689851268</v>
+        <v>435.3069730258661</v>
       </c>
       <c r="R4">
-        <v>260.3577689851268</v>
+        <v>3917.762757232795</v>
       </c>
       <c r="S4">
-        <v>0.08573796224685809</v>
+        <v>0.08308941922895906</v>
       </c>
       <c r="T4">
-        <v>0.08573796224685809</v>
+        <v>0.08308941922895904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H5">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I5">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J5">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.2072050737199</v>
+        <v>22.468903</v>
       </c>
       <c r="N5">
-        <v>22.2072050737199</v>
+        <v>67.40670900000001</v>
       </c>
       <c r="O5">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="P5">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="Q5">
-        <v>312.2650335562179</v>
+        <v>481.819246342878</v>
       </c>
       <c r="R5">
-        <v>312.2650335562179</v>
+        <v>4336.373217085903</v>
       </c>
       <c r="S5">
-        <v>0.1028314528981323</v>
+        <v>0.09196747084863641</v>
       </c>
       <c r="T5">
-        <v>0.1028314528981323</v>
+        <v>0.09196747084863639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H6">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I6">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J6">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.1174268025661</v>
+        <v>17.57385566666667</v>
       </c>
       <c r="N6">
-        <v>17.1174268025661</v>
+        <v>52.721567</v>
       </c>
       <c r="O6">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="P6">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="Q6">
-        <v>240.6954786590821</v>
+        <v>376.850703065114</v>
       </c>
       <c r="R6">
-        <v>240.6954786590821</v>
+        <v>3391.656327586026</v>
       </c>
       <c r="S6">
-        <v>0.07926300775545787</v>
+        <v>0.07193155174163644</v>
       </c>
       <c r="T6">
-        <v>0.07926300775545787</v>
+        <v>0.07193155174163643</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.061428825447</v>
+        <v>21.443826</v>
       </c>
       <c r="H7">
-        <v>14.061428825447</v>
+        <v>64.331478</v>
       </c>
       <c r="I7">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="J7">
-        <v>0.6379131560377667</v>
+        <v>0.6062978927103765</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.1345313157251</v>
+        <v>27.85718966666667</v>
       </c>
       <c r="N7">
-        <v>24.1345313157251</v>
+        <v>83.571569</v>
       </c>
       <c r="O7">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="P7">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="Q7">
-        <v>339.3659943315902</v>
+        <v>597.364728060998</v>
       </c>
       <c r="R7">
-        <v>339.3659943315902</v>
+        <v>5376.282552548982</v>
       </c>
       <c r="S7">
-        <v>0.1117560229651972</v>
+        <v>0.1140222679582578</v>
       </c>
       <c r="T7">
-        <v>0.1117560229651972</v>
+        <v>0.1140222679582578</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H8">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I8">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J8">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>27.9936586396671</v>
+        <v>32.017979</v>
       </c>
       <c r="N8">
-        <v>27.9936586396671</v>
+        <v>96.05393700000002</v>
       </c>
       <c r="O8">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="P8">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="Q8">
-        <v>101.837094795998</v>
+        <v>116.602883814326</v>
       </c>
       <c r="R8">
-        <v>101.837094795998</v>
+        <v>1049.425954328934</v>
       </c>
       <c r="S8">
-        <v>0.03353579585116114</v>
+        <v>0.02225662922238199</v>
       </c>
       <c r="T8">
-        <v>0.03353579585116114</v>
+        <v>0.02225662922238199</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H9">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I9">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J9">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.7934536953541</v>
+        <v>27.90901333333333</v>
       </c>
       <c r="N9">
-        <v>27.7934536953541</v>
+        <v>83.72704</v>
       </c>
       <c r="O9">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323413</v>
       </c>
       <c r="P9">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323412</v>
       </c>
       <c r="Q9">
-        <v>101.1087766381228</v>
+        <v>101.6388773032534</v>
       </c>
       <c r="R9">
-        <v>101.1087766381228</v>
+        <v>914.7498957292801</v>
       </c>
       <c r="S9">
-        <v>0.03329595467043887</v>
+        <v>0.01940036757855688</v>
       </c>
       <c r="T9">
-        <v>0.03329595467043887</v>
+        <v>0.01940036757855688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H10">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I10">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J10">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>18.5157406275781</v>
+        <v>20.29987433333334</v>
       </c>
       <c r="N10">
-        <v>18.5157406275781</v>
+        <v>60.89962300000001</v>
       </c>
       <c r="O10">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="P10">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="Q10">
-        <v>67.35772761181337</v>
+        <v>73.92796054788735</v>
       </c>
       <c r="R10">
-        <v>67.35772761181337</v>
+        <v>665.3516449309861</v>
       </c>
       <c r="S10">
-        <v>0.02218145565437579</v>
+        <v>0.01411103356329732</v>
       </c>
       <c r="T10">
-        <v>0.02218145565437579</v>
+        <v>0.01411103356329732</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H11">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I11">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J11">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.2072050737199</v>
+        <v>22.468903</v>
       </c>
       <c r="N11">
-        <v>22.2072050737199</v>
+        <v>67.40670900000001</v>
       </c>
       <c r="O11">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="P11">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="Q11">
-        <v>80.78676950936327</v>
+        <v>81.82711613198201</v>
       </c>
       <c r="R11">
-        <v>80.78676950936327</v>
+        <v>736.4440451878381</v>
       </c>
       <c r="S11">
-        <v>0.02660374999078709</v>
+        <v>0.01561878852830362</v>
       </c>
       <c r="T11">
-        <v>0.02660374999078709</v>
+        <v>0.01561878852830362</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H12">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I12">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J12">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.1174268025661</v>
+        <v>17.57385566666667</v>
       </c>
       <c r="N12">
-        <v>17.1174268025661</v>
+        <v>52.721567</v>
       </c>
       <c r="O12">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="P12">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="Q12">
-        <v>62.27085349559764</v>
+        <v>64.00036212373267</v>
       </c>
       <c r="R12">
-        <v>62.27085349559764</v>
+        <v>576.003259113594</v>
       </c>
       <c r="S12">
-        <v>0.02050630602227267</v>
+        <v>0.01221609863572765</v>
       </c>
       <c r="T12">
-        <v>0.02050630602227267</v>
+        <v>0.01221609863572765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.63786299271702</v>
+        <v>3.641794</v>
       </c>
       <c r="H13">
-        <v>3.63786299271702</v>
+        <v>10.925382</v>
       </c>
       <c r="I13">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="J13">
-        <v>0.1650359072128887</v>
+        <v>0.1029672609675761</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>24.1345313157251</v>
+        <v>27.85718966666667</v>
       </c>
       <c r="N13">
-        <v>24.1345313157251</v>
+        <v>83.571569</v>
       </c>
       <c r="O13">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="P13">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="Q13">
-        <v>87.79811832004634</v>
+        <v>101.4501461849287</v>
       </c>
       <c r="R13">
-        <v>87.79811832004634</v>
+        <v>913.0513156643581</v>
       </c>
       <c r="S13">
-        <v>0.02891264502385307</v>
+        <v>0.01936434343930861</v>
       </c>
       <c r="T13">
-        <v>0.02891264502385307</v>
+        <v>0.01936434343930861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H14">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I14">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J14">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>27.9936586396671</v>
+        <v>32.017979</v>
       </c>
       <c r="N14">
-        <v>27.9936586396671</v>
+        <v>96.05393700000002</v>
       </c>
       <c r="O14">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="P14">
-        <v>0.2032030266474163</v>
+        <v>0.2161524839374964</v>
       </c>
       <c r="Q14">
-        <v>121.5922962722143</v>
+        <v>329.2359259429147</v>
       </c>
       <c r="R14">
-        <v>121.5922962722143</v>
+        <v>2963.123333486233</v>
       </c>
       <c r="S14">
-        <v>0.04004134675117544</v>
+        <v>0.06284305919969688</v>
       </c>
       <c r="T14">
-        <v>0.04004134675117544</v>
+        <v>0.06284305919969688</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H15">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I15">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J15">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.7934536953541</v>
+        <v>27.90901333333333</v>
       </c>
       <c r="N15">
-        <v>27.7934536953541</v>
+        <v>83.72704</v>
       </c>
       <c r="O15">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323413</v>
       </c>
       <c r="P15">
-        <v>0.2017497599930701</v>
+        <v>0.1884129712323412</v>
       </c>
       <c r="Q15">
-        <v>120.7226929374943</v>
+        <v>286.9840675126044</v>
       </c>
       <c r="R15">
-        <v>120.7226929374943</v>
+        <v>2582.85660761344</v>
       </c>
       <c r="S15">
-        <v>0.03975497919558993</v>
+        <v>0.0547782162363151</v>
       </c>
       <c r="T15">
-        <v>0.03975497919558993</v>
+        <v>0.0547782162363151</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H16">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I16">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J16">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.5157406275781</v>
+        <v>20.29987433333334</v>
       </c>
       <c r="N16">
-        <v>18.5157406275781</v>
+        <v>60.89962300000001</v>
       </c>
       <c r="O16">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="P16">
-        <v>0.1344038156845634</v>
+        <v>0.1370438858982645</v>
       </c>
       <c r="Q16">
-        <v>80.42433642088324</v>
+        <v>208.7404680557698</v>
       </c>
       <c r="R16">
-        <v>80.42433642088324</v>
+        <v>1878.664212501928</v>
       </c>
       <c r="S16">
-        <v>0.02648439778332948</v>
+        <v>0.03984343310600816</v>
       </c>
       <c r="T16">
-        <v>0.02648439778332948</v>
+        <v>0.03984343310600814</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>26</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H17">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I17">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J17">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.2072050737199</v>
+        <v>22.468903</v>
       </c>
       <c r="N17">
-        <v>22.2072050737199</v>
+        <v>67.40670900000001</v>
       </c>
       <c r="O17">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="P17">
-        <v>0.1611997682205575</v>
+        <v>0.1516869379794604</v>
       </c>
       <c r="Q17">
-        <v>96.4584548757533</v>
+        <v>231.0442543586693</v>
       </c>
       <c r="R17">
-        <v>96.4584548757533</v>
+        <v>2079.398289228024</v>
       </c>
       <c r="S17">
-        <v>0.03176456533163811</v>
+        <v>0.04410067860252038</v>
       </c>
       <c r="T17">
-        <v>0.03176456533163811</v>
+        <v>0.04410067860252036</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>27</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H18">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I18">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J18">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>17.1174268025661</v>
+        <v>17.57385566666667</v>
       </c>
       <c r="N18">
-        <v>17.1174268025661</v>
+        <v>52.721567</v>
       </c>
       <c r="O18">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="P18">
-        <v>0.1242536025558395</v>
+        <v>0.1186406098495176</v>
       </c>
       <c r="Q18">
-        <v>74.35066841339145</v>
+        <v>180.7092397306569</v>
       </c>
       <c r="R18">
-        <v>74.35066841339145</v>
+        <v>1626.383157575912</v>
       </c>
       <c r="S18">
-        <v>0.02448428877810894</v>
+        <v>0.03449295947215349</v>
       </c>
       <c r="T18">
-        <v>0.02448428877810894</v>
+        <v>0.03449295947215349</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>4.3435657281295</v>
+        <v>10.28284533333333</v>
       </c>
       <c r="H19">
-        <v>4.3435657281295</v>
+        <v>30.848536</v>
       </c>
       <c r="I19">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="J19">
-        <v>0.1970509367493447</v>
+        <v>0.2907348463220475</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>24.1345313157251</v>
+        <v>27.85718966666667</v>
       </c>
       <c r="N19">
-        <v>24.1345313157251</v>
+        <v>83.571569</v>
       </c>
       <c r="O19">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="P19">
-        <v>0.175190026898553</v>
+        <v>0.1880631111029199</v>
       </c>
       <c r="Q19">
-        <v>104.8299230874517</v>
+        <v>286.4511727636649</v>
       </c>
       <c r="R19">
-        <v>104.8299230874517</v>
+        <v>2578.060554872984</v>
       </c>
       <c r="S19">
-        <v>0.03452135890950277</v>
+        <v>0.05467649970535358</v>
       </c>
       <c r="T19">
-        <v>0.03452135890950277</v>
+        <v>0.05467649970535358</v>
       </c>
     </row>
   </sheetData>
